--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-781079.6014066571</v>
+        <v>-731744.3705668602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17369085.08859303</v>
+        <v>16775128.44796222</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9623479.960577322</v>
+        <v>9626600.418475995</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.3178942517236</v>
+        <v>341.0193028937003</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.738806563619</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.4039470289789</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>82.64119670414917</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,7 +877,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>324.6160733636063</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>125.701516617082</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="V7" t="n">
-        <v>255.9152811133941</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1151,7 +1151,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>63.30706734560965</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>232.4294842168454</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1291,22 +1291,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>161.0543639277993</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>219.7703493858182</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1373,13 +1373,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>92.21539329894831</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>109.8295454711924</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1664,7 +1664,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>31.20256635794641</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>98.73120706589778</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>142.4359347523207</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61518783707712</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430781</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.4707957071068</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.66098205162336</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2302,7 +2302,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>103.3456594571954</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>54.49360828358962</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>20.28369113775125</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225723</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,10 +3439,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277814</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934462</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3509,13 +3509,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545403</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F38" t="n">
-        <v>407.3530449561369</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242213</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H38" t="n">
         <v>270.0031426724685</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925395</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3560,7 +3560,7 @@
         <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267643</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
         <v>384.5711897043296</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.537639394324</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934433</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3718,7 +3718,7 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W40" t="n">
         <v>253.070430030824</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1107.976466382457</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1528.02936532736</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1528.02936532736</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.52126921767</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.298966534687</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1749.682016468513</v>
       </c>
       <c r="W2" t="n">
-        <v>929.7110254252771</v>
+        <v>1344.826561879546</v>
       </c>
       <c r="X2" t="n">
-        <v>510.5685620045878</v>
+        <v>925.6840984588572</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.3228423446453</v>
+        <v>517.3979747585106</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>307.9235084304834</v>
+        <v>954.7136726652275</v>
       </c>
       <c r="C4" t="n">
-        <v>135.3617969137083</v>
+        <v>954.7136726652275</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>788.8356798667502</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>619.0776761174875</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>442.3706220792437</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>276.7793471050714</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>136.8771727954459</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>1537.942061378414</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1259.509060631519</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>972.5535525019498</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>972.5535525019498</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>727.1617978353622</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>499.7421271494705</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.125576892025</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C5" t="n">
-        <v>920.543902629293</v>
+        <v>531.106321578008</v>
       </c>
       <c r="D5" t="n">
-        <v>491.9622283665614</v>
+        <v>499.2369407928566</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>469.5025999915558</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1395.548364879493</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>516.14417192365</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>516.14417192365</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1292.062614956869</v>
+        <v>2084.044929341546</v>
       </c>
       <c r="V7" t="n">
-        <v>1033.562331003946</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W7" t="n">
-        <v>761.5359265902375</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>516.14417192365</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.14417192365</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.205747932707</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>1630.103679156535</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
-        <v>1598.234298371383</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.459553529678</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>736.5921239388859</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>335.1942925621498</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>481.318825458284</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>481.318825458284</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1051.362533274689</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1051.362533274689</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1051.362533274689</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1051.362533274689</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1587.554049556653</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2134.052835515248</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2303.206900268305</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2303.206900268305</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="U8" t="n">
-        <v>2303.206900268305</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>1940.589950202131</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1705.812693417439</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1690.710634037154</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1686.464914377211</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>552.2358829966589</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>445.7794218333012</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>350.6891329798544</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>256.5687183068081</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>173.1848799229697</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>87.79979018915363</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>72.12781116582369</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>396.686136132036</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>966.7298439484414</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1051.39218275776</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1592.131121389835</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1709.303899484175</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1645.848461932558</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1515.66981826316</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1339.333271263128</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1140.215753325127</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>954.8929990583213</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>800.0255632972013</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>673.5397840764221</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>374.6233064884892</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>374.6233064884892</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>208.7453136900118</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>46.0641380053661</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>46.0641380053661</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>46.0641380053661</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>46.0641380053661</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>46.0641380053661</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>47.88543010133033</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>466.0953118692914</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>925.5791790502044</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1367.837982207849</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1787.507231433631</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2135.014125403972</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2303.206900268305</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2281.789078973677</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2122.547710271673</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1876.668263850128</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1598.235263103234</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1311.279754973664</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1039.253350559956</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>793.8615958933681</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>566.4419252074763</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2176.404112101815</v>
+        <v>1310.670084957922</v>
       </c>
       <c r="C11" t="n">
-        <v>1738.261639285238</v>
+        <v>872.5276121413449</v>
       </c>
       <c r="D11" t="n">
-        <v>1302.351854459683</v>
+        <v>872.5276121413449</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.204992541553</v>
+        <v>872.5276121413449</v>
       </c>
       <c r="F11" t="n">
-        <v>781.3375629507608</v>
+        <v>761.5886773219586</v>
       </c>
       <c r="G11" t="n">
-        <v>379.9397315740246</v>
+        <v>360.1908459452225</v>
       </c>
       <c r="H11" t="n">
-        <v>90.8095770172409</v>
+        <v>71.06069138843878</v>
       </c>
       <c r="I11" t="n">
-        <v>90.8095770172409</v>
+        <v>70.64390201557879</v>
       </c>
       <c r="J11" t="n">
-        <v>526.0642644701587</v>
+        <v>505.8985894684967</v>
       </c>
       <c r="K11" t="n">
-        <v>1360.414556428337</v>
+        <v>1340.248881426675</v>
       </c>
       <c r="L11" t="n">
-        <v>2435.474522681196</v>
+        <v>1340.248881426675</v>
       </c>
       <c r="M11" t="n">
-        <v>3165.670190070055</v>
+        <v>1340.248881426675</v>
       </c>
       <c r="N11" t="n">
-        <v>3165.670190070055</v>
+        <v>2214.467168869462</v>
       </c>
       <c r="O11" t="n">
-        <v>3165.670190070055</v>
+        <v>2214.467168869462</v>
       </c>
       <c r="P11" t="n">
-        <v>3993.980064903451</v>
+        <v>2985.696314820344</v>
       </c>
       <c r="Q11" t="n">
-        <v>4540.478850862045</v>
+        <v>3532.195100778939</v>
       </c>
       <c r="R11" t="n">
-        <v>4540.478850862045</v>
+        <v>3532.195100778939</v>
       </c>
       <c r="S11" t="n">
-        <v>4456.826977045882</v>
+        <v>3448.543226962776</v>
       </c>
       <c r="T11" t="n">
-        <v>4456.826977045882</v>
+        <v>3228.475999835815</v>
       </c>
       <c r="U11" t="n">
-        <v>4197.604674362899</v>
+        <v>2969.253697152832</v>
       </c>
       <c r="V11" t="n">
-        <v>3834.987724296725</v>
+        <v>2969.253697152832</v>
       </c>
       <c r="W11" t="n">
-        <v>3430.132269707758</v>
+        <v>2564.398242563865</v>
       </c>
       <c r="X11" t="n">
-        <v>3010.989806287069</v>
+        <v>2145.255779143176</v>
       </c>
       <c r="Y11" t="n">
-        <v>2602.703682586723</v>
+        <v>1736.969655442829</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>596.9813220085337</v>
+        <v>576.8156470068716</v>
       </c>
       <c r="C12" t="n">
-        <v>490.524860845176</v>
+        <v>470.3591858435138</v>
       </c>
       <c r="D12" t="n">
-        <v>395.4345719917292</v>
+        <v>375.2688969900671</v>
       </c>
       <c r="E12" t="n">
-        <v>301.3141573186829</v>
+        <v>281.1484823170208</v>
       </c>
       <c r="F12" t="n">
-        <v>217.9303189348445</v>
+        <v>197.7646439331824</v>
       </c>
       <c r="G12" t="n">
-        <v>132.5452292010284</v>
+        <v>112.3795541993663</v>
       </c>
       <c r="H12" t="n">
-        <v>90.8095770172409</v>
+        <v>70.64390201557879</v>
       </c>
       <c r="I12" t="n">
-        <v>116.8732501776985</v>
+        <v>96.70757517603639</v>
       </c>
       <c r="J12" t="n">
-        <v>441.4315751439108</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="K12" t="n">
-        <v>441.4315751439108</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="L12" t="n">
-        <v>441.4315751439108</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="M12" t="n">
-        <v>441.4315751439108</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="N12" t="n">
-        <v>441.4315751439108</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="O12" t="n">
-        <v>441.4315751439108</v>
+        <v>421.2659001422487</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.137621769635</v>
+        <v>1075.971946767972</v>
       </c>
       <c r="Q12" t="n">
-        <v>1636.87656040171</v>
+        <v>1616.710885400048</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.04933849605</v>
+        <v>1733.883663494388</v>
       </c>
       <c r="S12" t="n">
-        <v>1690.593900944433</v>
+        <v>1670.428225942771</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.415257275034</v>
+        <v>1540.249582273372</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.078710275003</v>
+        <v>1363.913035273341</v>
       </c>
       <c r="V12" t="n">
-        <v>1184.961192337002</v>
+        <v>1164.79551733534</v>
       </c>
       <c r="W12" t="n">
-        <v>999.6384380701961</v>
+        <v>979.4727630685341</v>
       </c>
       <c r="X12" t="n">
-        <v>844.771002309076</v>
+        <v>824.605327307414</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.2852230882968</v>
+        <v>698.1195480866347</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.305614094172</v>
+        <v>921.1399390925101</v>
       </c>
       <c r="C13" t="n">
-        <v>768.743902577397</v>
+        <v>748.578227575735</v>
       </c>
       <c r="D13" t="n">
-        <v>602.8659097789198</v>
+        <v>582.7002347772577</v>
       </c>
       <c r="E13" t="n">
-        <v>433.107906029657</v>
+        <v>412.9422310279949</v>
       </c>
       <c r="F13" t="n">
-        <v>256.4008519914132</v>
+        <v>236.2351769897511</v>
       </c>
       <c r="G13" t="n">
-        <v>90.80957701724083</v>
+        <v>70.64390201557879</v>
       </c>
       <c r="H13" t="n">
-        <v>90.8095770172409</v>
+        <v>70.64390201557879</v>
       </c>
       <c r="I13" t="n">
-        <v>90.8095770172409</v>
+        <v>70.64390201557879</v>
       </c>
       <c r="J13" t="n">
-        <v>177.3892621819307</v>
+        <v>157.2235871802686</v>
       </c>
       <c r="K13" t="n">
-        <v>452.1477167530663</v>
+        <v>431.9820417514042</v>
       </c>
       <c r="L13" t="n">
-        <v>870.3575985210274</v>
+        <v>850.1919235193653</v>
       </c>
       <c r="M13" t="n">
-        <v>1329.84146570194</v>
+        <v>1309.675790700278</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.100268859585</v>
+        <v>1751.934593857923</v>
       </c>
       <c r="O13" t="n">
-        <v>2191.769518085366</v>
+        <v>2171.603843083704</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.276412055708</v>
+        <v>2519.110737054046</v>
       </c>
       <c r="Q13" t="n">
-        <v>2707.469186920041</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="R13" t="n">
-        <v>2707.469186920041</v>
+        <v>2687.303511918378</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.230017877356</v>
+        <v>2669.064342875694</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.350571455811</v>
+        <v>2423.184896454149</v>
       </c>
       <c r="U13" t="n">
-        <v>2164.917570708917</v>
+        <v>2144.751895707254</v>
       </c>
       <c r="V13" t="n">
-        <v>1877.962062579347</v>
+        <v>1857.796387577685</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.935658165638</v>
+        <v>1585.769983163977</v>
       </c>
       <c r="X13" t="n">
-        <v>1360.543903499051</v>
+        <v>1340.378228497389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.124232813159</v>
+        <v>1112.958557811497</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.142920993212</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.000448176635</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.09066335108</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.315918509375</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>786.4484889185828</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>385.0506575418467</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>95.9205029850627</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>530.7584010651207</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.108693023299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.168659276158</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2440.168659276158</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2440.168659276158</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3420.348325846464</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4248.65820067986</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4606.031615857079</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4775.185680610135</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4691.533806793972</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4471.466579667011</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4212.244276984027</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4180.726533188123</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.871078599156</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3356.728615178466</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2948.44249147812</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>601.6754586034955</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>495.2189974401378</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>400.1287085866911</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>306.0082939136448</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>222.6244555298064</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>137.2393657959902</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>121.5673867726603</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>446.1257117388727</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1641.570696996672</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1758.743475091012</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.288037539395</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.109393869996</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1388.772846869964</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1189.655328931964</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.332574665158</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>849.4651389040379</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.9793596832586</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1085.90192499876</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C16" t="n">
-        <v>913.3402134819843</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D16" t="n">
-        <v>747.462220683507</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E16" t="n">
-        <v>577.7042169342443</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F16" t="n">
-        <v>400.9971628960005</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G16" t="n">
-        <v>235.4058879218282</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>95.5037136122027</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>182.0833987768926</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>456.8418533480281</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>875.0517351159891</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1334.535602296902</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1776.794405454547</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2196.463654680329</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2543.97054865067</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.163323515003</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2690.745502220374</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2690.745502220374</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2444.86605579883</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>2166.433055051935</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>2022.558373483934</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1750.531969070226</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1505.140214403638</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1277.720543717747</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2521.726131620352</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2083.583658803775</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1647.67387397822</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1213.899129136515</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>786.0316995457226</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>384.6338681689865</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>95.5037136122027</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>530.7584010651207</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.108693023299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.168659276158</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2440.168659276158</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2440.168659276158</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3420.348325846464</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4059.532829898484</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4606.031615857079</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4775.185680610135</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4691.533806793972</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4471.466579667011</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4212.244276984027</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4180.309743815263</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3775.454289226296</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3356.311825805607</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2948.02570210526</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>601.6754586034955</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>495.2189974401378</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>400.1287085866911</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>306.0082939136448</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>222.6244555298064</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>137.2393657959902</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>121.5673867726603</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>446.1257117388727</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>446.1257117388727</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>446.1257117388727</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>446.1257117388727</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>446.1257117388727</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>446.1257117388727</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1641.570696996672</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1758.743475091012</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.288037539395</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.109393869996</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1388.772846869964</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1189.655328931964</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.332574665158</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>849.4651389040379</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.9793596832586</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1085.901924998759</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>913.3402134819843</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>747.462220683507</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>577.7042169342443</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>400.9971628960005</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>235.4058879218282</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>182.0833987768926</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>456.8418533480281</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>875.0517351159891</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1334.535602296902</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1776.794405454547</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2196.463654680328</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2543.97054865067</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.163323515002</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.163323515002</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2552.921954812999</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2552.921954812999</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2274.488954066104</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1987.533445936534</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1715.507041522826</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1470.115286856239</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1277.720543717747</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2521.726131620353</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2083.583658803776</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1647.673873978221</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.899129136516</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>786.0316995457238</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>384.6338681689876</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>95.5037136122027</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>95.5037136122027</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>95.5037136122027</v>
+        <v>1134.430677610026</v>
       </c>
       <c r="L20" t="n">
-        <v>683.9173205594345</v>
+        <v>1134.430677610026</v>
       </c>
       <c r="M20" t="n">
-        <v>1840.965155769985</v>
+        <v>2291.478512820577</v>
       </c>
       <c r="N20" t="n">
-        <v>2966.696139206432</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O20" t="n">
-        <v>3946.875805776739</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P20" t="n">
-        <v>4775.185680610135</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4775.185680610135</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>4775.185680610135</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>4691.533806793972</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4471.466579667011</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4212.244276984027</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>3849.627326917854</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3444.771872328887</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3025.629408908198</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2617.343285207851</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>601.6754586034955</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>495.2189974401378</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>400.1287085866911</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>306.0082939136448</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>222.6244555298064</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2393657959902</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>121.5673867726603</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>446.1257117388727</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1100.831758364596</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.570696996672</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1758.743475091012</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.288037539395</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.109393869996</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1388.772846869964</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1189.655328931964</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.332574665158</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>849.4651389040379</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>722.9793596832586</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>945.999750689134</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>773.4380391723589</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>607.5600463738815</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>437.8020426246188</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0949885863751</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>95.5037136122027</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>182.0833987768926</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>456.8418533480281</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>875.0517351159891</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1334.535602296902</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1776.794405454547</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2196.463654680328</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2543.97054865067</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.163323515002</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.163323515002</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2552.921954812998</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2307.042508391453</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2028.609507644559</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1741.653999514989</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1469.627595101281</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1365.238040094013</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1137.818369408121</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903952</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736202</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751428</v>
+        <v>697.7765985000558</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258801</v>
+        <v>528.018594750793</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>351.3115407125492</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6470,16 +6470,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6941,19 +6941,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1021.773653488281</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>2178.821488698832</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135279</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705585</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7072,19 +7072,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.359044888629</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030279</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
         <v>174.5210820832282</v>
@@ -7108,16 +7108,16 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
         <v>2699.647500885579</v>
@@ -7126,16 +7126,16 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W37" t="n">
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7160,13 +7160,13 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197253</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581773</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I38" t="n">
         <v>97.56670367581783</v>
@@ -7178,22 +7178,22 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790891</v>
@@ -7309,22 +7309,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936673</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E40" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
         <v>97.56670367581783</v>
@@ -7336,7 +7336,7 @@
         <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7397,40 +7397,40 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
         <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>444.7825334645009</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1279.132825422679</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790891</v>
@@ -7448,13 +7448,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7546,22 +7546,22 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936672</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463116</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
         <v>97.56670367581783</v>
@@ -7585,13 +7585,13 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7631,10 +7631,10 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
@@ -7646,22 +7646,22 @@
         <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>444.7825334645009</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1279.132825422679</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M44" t="n">
-        <v>3599.279484550324</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N44" t="n">
-        <v>4162.68233307924</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O44" t="n">
-        <v>4162.68233307924</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P44" t="n">
         <v>4162.68233307924</v>
@@ -7685,13 +7685,13 @@
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
         <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8143,10 +8143,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>575.8017250670762</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>541.6075922040036</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670762</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>85.51751394880648</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>1.839688985822455</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8693,19 +8693,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>737.5713812008671</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>883.0487751947348</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>779.019339344326</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.9832476537558</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>645.6409131838582</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>602.9445958447762</v>
       </c>
       <c r="L20" t="n">
-        <v>594.3571787345776</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9416,13 +9416,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10118,19 +10118,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10589,10 +10589,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>86.02274874679142</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10604,7 +10604,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497093</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,16 +11303,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>569.0937863928452</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5.127748292072725</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>337.2216040943395</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>313.7592098236919</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7882142075653</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.48800580459475</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>141.6500182959532</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.3755927284346</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.592177662722</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.67467827192601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>327.3755927284353</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>-2.269923539476613e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>143.6516710866794</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627261</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.209965709378594e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.209965709378594e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>843292.6390208356</v>
+        <v>847648.5782596266</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>843292.6390208356</v>
+        <v>848281.2398439025</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>846400.1314895849</v>
+        <v>848281.2398439025</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>772713.5322913447</v>
+        <v>648046.229987191</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801733.4062054517</v>
+        <v>843507.0017723162</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801733.4062054516</v>
+        <v>843507.0017723164</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801733.4062054516</v>
+        <v>843507.0017723163</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>843507.0017723162</v>
+        <v>843507.0017723163</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107229.4639780817</v>
+        <v>107147.8302252719</v>
       </c>
       <c r="C2" t="n">
         <v>107229.4639780817</v>
@@ -26320,16 +26320,16 @@
         <v>107229.4639780817</v>
       </c>
       <c r="E2" t="n">
-        <v>96527.9444030382</v>
+        <v>80954.41304529455</v>
       </c>
       <c r="F2" t="n">
-        <v>100153.128457286</v>
+        <v>105371.5168274704</v>
       </c>
       <c r="G2" t="n">
-        <v>100153.128457286</v>
+        <v>105371.5168274705</v>
       </c>
       <c r="H2" t="n">
-        <v>100153.128457286</v>
+        <v>105371.5168274705</v>
       </c>
       <c r="I2" t="n">
         <v>105371.5168274705</v>
@@ -26347,10 +26347,10 @@
         <v>107229.4639780818</v>
       </c>
       <c r="N2" t="n">
-        <v>107229.4639780817</v>
+        <v>107229.4639780816</v>
       </c>
       <c r="O2" t="n">
-        <v>107229.4639780817</v>
+        <v>107229.4639780816</v>
       </c>
       <c r="P2" t="n">
         <v>107229.4639780817</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>47062.26763611586</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>167000.0461160945</v>
+        <v>64353.58184153282</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510031</v>
+        <v>113238.435631371</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22460.77347719294</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>38344.77152333065</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>152372.8480649385</v>
+        <v>66700.39569712221</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>82426.5130279671</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>130524.3309402254</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>149865.9303752281</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25360.6220628327</v>
+        <v>21269.01475274294</v>
       </c>
       <c r="F4" t="n">
-        <v>26313.06048132961</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>26313.06048132961</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
-        <v>26313.06048132961</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26451,13 @@
         <v>33026.43656683595</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353615</v>
+        <v>42419.67665353612</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353611</v>
+        <v>42419.67665353612</v>
       </c>
       <c r="P4" t="n">
-        <v>42419.67665353613</v>
+        <v>42419.67665353612</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>68636.34488407822</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69015.27853310308</v>
+        <v>53689.36553183987</v>
       </c>
       <c r="F5" t="n">
-        <v>72582.82234527405</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>72582.82234527405</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>72582.82234527405</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-275819.0112793127</v>
+        <v>-321289.7442826661</v>
       </c>
       <c r="C6" t="n">
-        <v>-133627.7106196028</v>
+        <v>-97740.36081569588</v>
       </c>
       <c r="D6" t="n">
-        <v>-158335.0789173405</v>
+        <v>-97740.36081569588</v>
       </c>
       <c r="E6" t="n">
-        <v>-164848.002308992</v>
+        <v>-58685.98721748091</v>
       </c>
       <c r="F6" t="n">
-        <v>-15555.15664441796</v>
+        <v>-113292.4604992784</v>
       </c>
       <c r="G6" t="n">
-        <v>1257.245630682344</v>
+        <v>-54.02486790736026</v>
       </c>
       <c r="H6" t="n">
-        <v>1257.245630682344</v>
+        <v>-54.02486790734571</v>
       </c>
       <c r="I6" t="n">
-        <v>-22491.57400571766</v>
+        <v>-54.02486790737506</v>
       </c>
       <c r="J6" t="n">
-        <v>-111045.2658735149</v>
+        <v>-174705.3735856135</v>
       </c>
       <c r="K6" t="n">
-        <v>-30.80052852473455</v>
+        <v>-54.02486790736049</v>
       </c>
       <c r="L6" t="n">
-        <v>-38375.57205185537</v>
+        <v>-54.02486790736049</v>
       </c>
       <c r="M6" t="n">
-        <v>-157252.9791919534</v>
+        <v>-71580.52682413708</v>
       </c>
       <c r="N6" t="n">
-        <v>-10705.82740154411</v>
+        <v>-93132.34042951129</v>
       </c>
       <c r="O6" t="n">
-        <v>-10705.82740154407</v>
+        <v>-10705.82740154419</v>
       </c>
       <c r="P6" t="n">
         <v>-10705.8274015441</v>
@@ -26719,7 +26719,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
         <v>16.23571033874737</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>575.8017250670762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1135.119712715511</v>
+        <v>883.0487751947348</v>
       </c>
       <c r="F4" t="n">
-        <v>1193.796420152534</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1193.796420152534</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1193.796420152534</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5058675469718</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>559.3179876484351</v>
+        <v>215.5335685868778</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702251</v>
+        <v>395.2117281900105</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.46408323221158</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469718</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484351</v>
+        <v>215.5335685868778</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>336.535020752988</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>151.5058675469718</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>559.3179876484351</v>
+        <v>215.5335685868778</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702251</v>
+        <v>395.2117281900105</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.71868052833509</v>
+        <v>81.0172718863584</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>63.81526584151358</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>5.132153028922247</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.42050141645234</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>297.8872386778023</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,13 +27673,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="V7" t="n">
-        <v>28.17067193487969</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>154.5594875100821</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>168.3774158262316</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>7.006059783970841</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>55.87832135360748</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.2357103387474</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,16 +34863,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>204.7592244691589</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>575.8017250670762</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>541.6075922040036</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>575.8017250670762</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>85.51751394880648</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>1.839688985822455</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35410,22 +35410,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>737.5713812008671</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>883.0487751947348</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>779.019339344326</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.9832476537558</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>170.862691669754</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35817,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>645.6409131838582</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>602.9445958447762</v>
       </c>
       <c r="L20" t="n">
-        <v>594.3571787345776</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36838,19 +36838,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -37309,10 +37309,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>86.02274874679142</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37324,7 +37324,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209006</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497093</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
         <v>293.7695028348439</v>
@@ -37707,19 +37707,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497093</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>350.7230603926092</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -38023,16 +38023,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>569.0937863928452</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
